--- a/数据库/优化.xlsx
+++ b/数据库/优化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="10365"/>
+    <workbookView windowWidth="13860" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>https://blog.csdn.net/zhangbijun1230/article/details/81608252</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,8 +40,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -47,6 +132,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -55,126 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -182,6 +162,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,19 +193,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,163 +361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,63 +384,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +414,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -483,158 +466,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,15 +707,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -728,7 +732,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="352425"/>
+          <a:off x="152400" y="428625"/>
           <a:ext cx="7143750" cy="6172200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -940,6 +944,552 @@
         <a:xfrm>
           <a:off x="600075" y="31861125"/>
           <a:ext cx="7077075" cy="5657850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="38947725"/>
+          <a:ext cx="5762625" cy="4752975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="44453175"/>
+          <a:ext cx="5686425" cy="3286125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="47882175"/>
+          <a:ext cx="5676900" cy="4486275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="52568475"/>
+          <a:ext cx="5553075" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="56064150"/>
+          <a:ext cx="5524500" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="59616975"/>
+          <a:ext cx="5876925" cy="3752850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="63855600"/>
+          <a:ext cx="5381625" cy="4552950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="68961000"/>
+          <a:ext cx="5876925" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="72209025"/>
+          <a:ext cx="5762625" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="76466700"/>
+          <a:ext cx="5724525" cy="6238875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="84134325"/>
+          <a:ext cx="8420100" cy="6438900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="90735150"/>
+          <a:ext cx="8448675" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="96354900"/>
+          <a:ext cx="8343900" cy="3457575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,17 +1792,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A533" workbookViewId="0">
+      <selection activeCell="C562" sqref="C562"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="3.375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId2" display="https://blog.csdn.net/zhangbijun1230/article/details/81608252"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
